--- a/data/meta_outcome_soe.xlsx
+++ b/data/meta_outcome_soe.xlsx
@@ -1884,22 +1884,22 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>N=2 n=93; Random-effects: 40.6% vs. 8.3%, OR=7.54, 95%CI: 2.56, 22.22; Fixed-effecs: OR=7.54, 95%CI: 2.56, 22.22</t>
+          <t>N=3 n=161; Random-effects: 28.8% vs. 4.1%, OR=9.55, 95%CI: 3.5, 26.09; Fixed-effecs: OR=9.55, 95%CI: 3.5, 26.09</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t xml:space="preserve"> All studies had overall low risk of bias</t>
+          <t>66.7% had overall low risk of bias</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>16.7% of eligible studies and 14.9% of participants had usable data</t>
+          <t>25% of eligible studies and 25.7% of participants had usable data</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>0% studies and 0% participants with schizophrenia</t>
+          <t>33.3% studies and 42.2% participants with schizophrenia</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
@@ -1926,12 +1926,12 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>4 weeks</t>
+          <t>4-6 weeks</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>N=2 n=458; Random-effects: 4.7% vs. 4.8%, OR=0.98, 95%CI: 0.07, 13.43; Fixed-effecs: OR=0.67, 95%CI: 0.29, 1.54</t>
+          <t>N=3 n=497; Random-effects: 5.6% vs. 6%, OR=0.93, 95%CI: 0.17, 5.06; Fixed-effecs: OR=0.71, 95%CI: 0.32, 1.55</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -1941,12 +1941,12 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>33.3% of eligible studies and 29.5% of participants had usable data</t>
+          <t>50% of eligible studies and 32.1% of participants had usable data</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>No clear indication of indirectness</t>
+          <t>66.7% studies and 92.2% participants with schizophrenia</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">

--- a/data/meta_outcome_soe.xlsx
+++ b/data/meta_outcome_soe.xlsx
@@ -2646,7 +2646,7 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>16.7% of eligible studies and 13.8% of participants had usable data</t>
+          <t>1 eligible study with usable data</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
@@ -2740,7 +2740,7 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>16.7% of eligible studies and 13.8% of participants had usable data</t>
+          <t>1 eligible study with usable data</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
@@ -2834,7 +2834,7 @@
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>16.7% of eligible studies and 13.8% of participants had usable data</t>
+          <t>1 eligible study with usable data</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
@@ -2928,7 +2928,7 @@
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>16.7% of eligible studies and 13.8% of participants had usable data</t>
+          <t>1 eligible study with usable data</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
@@ -3022,7 +3022,7 @@
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>16.7% of eligible studies and 13.8% of participants had usable data</t>
+          <t>1 eligible study with usable data</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
@@ -3116,7 +3116,7 @@
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>16.7% of eligible studies and 13.8% of participants had usable data</t>
+          <t>1 eligible study with usable data</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
@@ -3210,7 +3210,7 @@
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>16.7% of eligible studies and 13.8% of participants had usable data</t>
+          <t>1 eligible study with usable data</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
@@ -3257,7 +3257,7 @@
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>16.7% of eligible studies and 13.8% of participants had usable data</t>
+          <t>1 eligible study with usable data</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
@@ -3304,7 +3304,7 @@
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>16.7% of eligible studies and 13.8% of participants had usable data</t>
+          <t>1 eligible study with usable data</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
@@ -3445,7 +3445,7 @@
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>16.7% of eligible studies and 13.8% of participants had usable data</t>
+          <t>1 eligible study with usable data</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
@@ -3492,7 +3492,7 @@
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>16.7% of eligible studies and 13.8% of participants had usable data</t>
+          <t>1 eligible study with usable data</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
